--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,309 +528,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N2">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q2">
-        <v>346.7877584440173</v>
+        <v>103.922804165378</v>
       </c>
       <c r="R2">
-        <v>346.7877584440173</v>
+        <v>623.5368249922681</v>
       </c>
       <c r="S2">
-        <v>0.2455790922822413</v>
+        <v>0.05408442871951533</v>
       </c>
       <c r="T2">
-        <v>0.2455790922822413</v>
+        <v>0.03988535011468863</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>283.78659238818</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>283.78659238818</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.4809577324997687</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.4809577324997687</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N3">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q3">
-        <v>679.171229154239</v>
+        <v>352.6383440790026</v>
       </c>
       <c r="R3">
-        <v>679.171229154239</v>
+        <v>2115.830064474016</v>
       </c>
       <c r="S3">
-        <v>0.4809577324997687</v>
+        <v>0.1835231789334518</v>
       </c>
       <c r="T3">
-        <v>0.4809577324997687</v>
+        <v>0.1353418427304222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H4">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I4">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J4">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N4">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q4">
-        <v>1.68379672323973</v>
+        <v>212.1244439838571</v>
       </c>
       <c r="R4">
-        <v>1.68379672323973</v>
+        <v>1909.119995854713</v>
       </c>
       <c r="S4">
-        <v>0.001192387161347214</v>
+        <v>0.1103956870914946</v>
       </c>
       <c r="T4">
-        <v>0.001192387161347214</v>
+        <v>0.1221193623112194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>131.008911593228</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H5">
-        <v>131.008911593228</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I5">
-        <v>0.2220321563710563</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J5">
-        <v>0.2220321563710563</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.39324635966321</v>
+        <v>2.431954666666666</v>
       </c>
       <c r="N5">
-        <v>2.39324635966321</v>
+        <v>7.295864</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7723792211295388</v>
       </c>
       <c r="Q5">
-        <v>313.5366007539322</v>
+        <v>719.7959414769841</v>
       </c>
       <c r="R5">
-        <v>313.5366007539322</v>
+        <v>6478.163473292857</v>
       </c>
       <c r="S5">
-        <v>0.2220321563710563</v>
+        <v>0.3746025966298729</v>
       </c>
       <c r="T5">
-        <v>0.2220321563710563</v>
+        <v>0.4143842157769543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>29.6430416415111</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H6">
-        <v>29.6430416415111</v>
+        <v>0.542374</v>
       </c>
       <c r="I6">
-        <v>0.05023863168558636</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J6">
-        <v>0.05023863168558636</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.39324635966321</v>
+        <v>0.7166990000000001</v>
       </c>
       <c r="N6">
-        <v>2.39324635966321</v>
+        <v>2.150097</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.2276207788704612</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.2276207788704611</v>
       </c>
       <c r="Q6">
-        <v>70.94310149789138</v>
+        <v>0.1295729678086667</v>
       </c>
       <c r="R6">
-        <v>70.94310149789138</v>
+        <v>1.166156710278</v>
       </c>
       <c r="S6">
-        <v>0.05023863168558636</v>
+        <v>6.743351469107653E-05</v>
       </c>
       <c r="T6">
-        <v>0.05023863168558636</v>
+        <v>7.459474214471345E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1807913333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.542374</v>
+      </c>
+      <c r="I7">
+        <v>0.0002962537736040913</v>
+      </c>
+      <c r="J7">
+        <v>0.0003277149938370313</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N7">
+        <v>7.295864</v>
+      </c>
+      <c r="O7">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P7">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q7">
+        <v>0.4396763267928889</v>
+      </c>
+      <c r="R7">
+        <v>3.957086941136</v>
+      </c>
+      <c r="S7">
+        <v>0.0002288202589130147</v>
+      </c>
+      <c r="T7">
+        <v>0.0002531202516923179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.738772</v>
+      </c>
+      <c r="H8">
+        <v>2.216316</v>
+      </c>
+      <c r="I8">
+        <v>0.001210588963518025</v>
+      </c>
+      <c r="J8">
+        <v>0.00133914970902166</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.150097</v>
+      </c>
+      <c r="O8">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P8">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q8">
+        <v>0.5294771536280001</v>
+      </c>
+      <c r="R8">
+        <v>4.765294382652</v>
+      </c>
+      <c r="S8">
+        <v>0.0002755552027679571</v>
+      </c>
+      <c r="T8">
+        <v>0.0003048182997916617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.738772</v>
+      </c>
+      <c r="H9">
+        <v>2.216316</v>
+      </c>
+      <c r="I9">
+        <v>0.001210588963518025</v>
+      </c>
+      <c r="J9">
+        <v>0.00133914970902166</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N9">
+        <v>7.295864</v>
+      </c>
+      <c r="O9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P9">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q9">
+        <v>1.796660013002666</v>
+      </c>
+      <c r="R9">
+        <v>16.169940117024</v>
+      </c>
+      <c r="S9">
+        <v>0.0009350337607500677</v>
+      </c>
+      <c r="T9">
+        <v>0.001034331409229999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H10">
+        <v>412.820641</v>
+      </c>
+      <c r="I10">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J10">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.150097</v>
+      </c>
+      <c r="O10">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P10">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q10">
+        <v>98.62271352801967</v>
+      </c>
+      <c r="R10">
+        <v>887.604421752177</v>
+      </c>
+      <c r="S10">
+        <v>0.05132610847801172</v>
+      </c>
+      <c r="T10">
+        <v>0.05677677998467905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H11">
+        <v>412.820641</v>
+      </c>
+      <c r="I11">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J11">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N11">
+        <v>7.295864</v>
+      </c>
+      <c r="O11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P11">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q11">
+        <v>334.6536947920915</v>
+      </c>
+      <c r="R11">
+        <v>3011.883253128824</v>
+      </c>
+      <c r="S11">
+        <v>0.1741634480234242</v>
+      </c>
+      <c r="T11">
+        <v>0.1926590591615822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>30.755622</v>
+      </c>
+      <c r="H12">
+        <v>61.511244</v>
+      </c>
+      <c r="I12">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J12">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.7166990000000001</v>
+      </c>
+      <c r="N12">
+        <v>2.150097</v>
+      </c>
+      <c r="O12">
+        <v>0.2276207788704612</v>
+      </c>
+      <c r="P12">
+        <v>0.2276207788704611</v>
+      </c>
+      <c r="Q12">
+        <v>22.042523531778</v>
+      </c>
+      <c r="R12">
+        <v>132.255141190668</v>
+      </c>
+      <c r="S12">
+        <v>0.01147156586398056</v>
+      </c>
+      <c r="T12">
+        <v>0.008459873417937717</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>30.755622</v>
+      </c>
+      <c r="H13">
+        <v>61.511244</v>
+      </c>
+      <c r="I13">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J13">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.431954666666666</v>
+      </c>
+      <c r="N13">
+        <v>7.295864</v>
+      </c>
+      <c r="O13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="P13">
+        <v>0.7723792211295388</v>
+      </c>
+      <c r="Q13">
+        <v>74.796278449136</v>
+      </c>
+      <c r="R13">
+        <v>448.777670694816</v>
+      </c>
+      <c r="S13">
+        <v>0.03892614352312691</v>
+      </c>
+      <c r="T13">
+        <v>0.02870665179965776</v>
       </c>
     </row>
   </sheetData>
